--- a/BH-4.xlsx
+++ b/BH-4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e502b30f76a96ce/เดสก์ท็อป/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBDC11F8-A34D-4657-8CFA-85B8B45A8A1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{DBDC11F8-A34D-4657-8CFA-85B8B45A8A1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A35A3A31-D9F5-4034-915C-087BF55C9C82}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -215,7 +215,7 @@
     <t>SM</t>
   </si>
   <si>
-    <t>200 (%)</t>
+    <t>#200 (%)</t>
   </si>
 </sst>
 </file>
@@ -699,7 +699,7 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
